--- a/2. Понимание потребностей пользователей/2.1. Функции продукта или системы.xlsx
+++ b/2. Понимание потребностей пользователей/2.1. Функции продукта или системы.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
@@ -529,8 +529,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,7 +660,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -692,10 +692,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -727,7 +726,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -903,14 +901,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" style="1" customWidth="1"/>
@@ -925,7 +923,7 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="31.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -957,7 +955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="47.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -989,7 +987,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="31.5">
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1018,7 +1016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="47.25">
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1047,7 +1045,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="47.25">
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1076,7 +1074,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="70.5" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1105,7 +1103,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="47.25">
       <c r="B7" s="1" t="s">
         <v>114</v>
       </c>
@@ -1134,7 +1132,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="47.25">
       <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1163,7 +1161,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="31.5">
       <c r="B9" s="1" t="s">
         <v>55</v>
       </c>
@@ -1192,7 +1190,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="63">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1224,7 +1222,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="31.5">
       <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1253,7 +1251,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="47.25">
       <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1282,7 +1280,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="47.25">
       <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
@@ -1311,7 +1309,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="31.5">
       <c r="B14" s="1" t="s">
         <v>58</v>
       </c>
@@ -1340,7 +1338,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="47.25">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -1372,7 +1370,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="78.75">
       <c r="B16" s="1" t="s">
         <v>65</v>
       </c>
@@ -1401,7 +1399,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="63">
       <c r="B17" s="1" t="s">
         <v>67</v>
       </c>
@@ -1430,7 +1428,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="47.25">
       <c r="B18" s="1" t="s">
         <v>73</v>
       </c>
@@ -1459,7 +1457,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="110.25">
       <c r="B19" s="1" t="s">
         <v>72</v>
       </c>
@@ -1488,7 +1486,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="47.25">
       <c r="A20" s="1" t="s">
         <v>75</v>
       </c>
@@ -1520,7 +1518,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="94.5">
       <c r="B21" s="1" t="s">
         <v>79</v>
       </c>
@@ -1549,7 +1547,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="94.5">
       <c r="B22" s="1" t="s">
         <v>121</v>
       </c>
@@ -1578,7 +1576,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="94.5">
       <c r="A23" s="1" t="s">
         <v>83</v>
       </c>
@@ -1610,7 +1608,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="47.25">
       <c r="B24" s="1" t="s">
         <v>86</v>
       </c>
@@ -1639,7 +1637,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="78.75">
       <c r="B25" s="1" t="s">
         <v>88</v>
       </c>
@@ -1668,7 +1666,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="47.25">
       <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
@@ -1700,7 +1698,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="63">
       <c r="B27" s="1" t="s">
         <v>97</v>
       </c>
@@ -1729,7 +1727,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="63">
       <c r="B28" s="1" t="s">
         <v>100</v>
       </c>
@@ -1758,7 +1756,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="63">
       <c r="A29" s="1" t="s">
         <v>111</v>
       </c>
@@ -1790,7 +1788,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="47.25">
       <c r="B30" s="1" t="s">
         <v>112</v>
       </c>
@@ -1819,7 +1817,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="31.5">
       <c r="B31" s="1" t="s">
         <v>127</v>
       </c>
@@ -1848,7 +1846,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="94.5">
       <c r="B32" s="1" t="s">
         <v>130</v>
       </c>
@@ -1877,7 +1875,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="94.5">
       <c r="B33" s="1" t="s">
         <v>139</v>
       </c>
@@ -1906,7 +1904,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="47.25">
       <c r="B34" s="1" t="s">
         <v>135</v>
       </c>
@@ -1935,7 +1933,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="31.5">
       <c r="B35" s="1" t="s">
         <v>140</v>
       </c>
@@ -1964,7 +1962,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="31.5">
       <c r="B36" s="1" t="s">
         <v>146</v>
       </c>
@@ -1993,7 +1991,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="63">
       <c r="A37" s="1" t="s">
         <v>113</v>
       </c>
@@ -2025,7 +2023,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="31.5">
       <c r="A38" s="1" t="s">
         <v>103</v>
       </c>
@@ -2057,7 +2055,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="47.25">
       <c r="B39" s="1" t="s">
         <v>105</v>
       </c>
@@ -2086,7 +2084,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="47.25">
       <c r="B40" s="1" t="s">
         <v>108</v>
       </c>
@@ -2115,7 +2113,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="63">
       <c r="B41" s="1" t="s">
         <v>106</v>
       </c>
@@ -2144,7 +2142,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="63">
       <c r="B42" s="1" t="s">
         <v>107</v>
       </c>
@@ -2173,7 +2171,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="31.5">
       <c r="B43" s="1" t="s">
         <v>158</v>
       </c>
@@ -2202,7 +2200,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="31.5">
       <c r="B44" s="1" t="s">
         <v>133</v>
       </c>
@@ -2231,7 +2229,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="63">
       <c r="B45" s="1" t="s">
         <v>109</v>
       </c>
@@ -2260,7 +2258,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="126" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="126">
       <c r="B46" s="1" t="s">
         <v>142</v>
       </c>
@@ -2296,12 +2294,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -2309,12 +2307,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/2. Понимание потребностей пользователей/2.1. Функции продукта или системы.xlsx
+++ b/2. Понимание потребностей пользователей/2.1. Функции продукта или системы.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="166">
   <si>
     <t>Подсистема</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Сокрытие информации по заказам от посторонних лиц</t>
   </si>
   <si>
-    <t>Прием платежей</t>
-  </si>
-  <si>
     <t>Оплата услуг онлайн с поддержкой разных платежных систем</t>
   </si>
   <si>
@@ -192,9 +189,6 @@
     <t>Приток новых клиентов и увеличение прибыли</t>
   </si>
   <si>
-    <t>Приоритизация заказов</t>
-  </si>
-  <si>
     <t>Внеочередная доставка заказов с VIP-статусом</t>
   </si>
   <si>
@@ -213,15 +207,9 @@
     <t>Облегчение работы курьеров</t>
   </si>
   <si>
-    <t>Связь с диспетчерами</t>
-  </si>
-  <si>
     <t>Устранение недопониманий и неточностей</t>
   </si>
   <si>
-    <t>Формирование отчетов</t>
-  </si>
-  <si>
     <t>Обеспечение конфиденциальности и сохранности информации</t>
   </si>
   <si>
@@ -345,9 +333,6 @@
     <t>Формирование тарифов по доставке грузов</t>
   </si>
   <si>
-    <t>Настройка напоминаний сотрудникам о различных событиях</t>
-  </si>
-  <si>
     <t>Минимизация ошибок ввода, уменьшение времени на обработку заявки.</t>
   </si>
   <si>
@@ -358,9 +343,6 @@
   </si>
   <si>
     <t>Система безопасности</t>
-  </si>
-  <si>
-    <t>Статус заявки в реальном времени</t>
   </si>
   <si>
     <t>Высокий</t>
@@ -409,15 +391,6 @@
     <t>Пресечение воровства</t>
   </si>
   <si>
-    <t>Формирование и выдача различных сводок и отчетов</t>
-  </si>
-  <si>
-    <t>Снижение затрат предприятий на поддержание парка транспортных средств</t>
-  </si>
-  <si>
-    <t>Постоянный мониторинг расходов предприятия и поддержание парка транспортных средств в работоспособном состоянии</t>
-  </si>
-  <si>
     <t>Складской учет</t>
   </si>
   <si>
@@ -466,9 +439,6 @@
     <t xml:space="preserve">Эффективное распределение нагрузки </t>
   </si>
   <si>
-    <t>Настройка безопасности на основе ролей</t>
-  </si>
-  <si>
     <t>Обеспечение доступа к конкретной информации в зависимости от должности</t>
   </si>
   <si>
@@ -508,12 +478,6 @@
     <t>Учет посылок временно размещенных на складе</t>
   </si>
   <si>
-    <t>Повышение взаимодействия сотрудников</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Улучшение отношений в коллективе </t>
-  </si>
-  <si>
     <t>Оптимальная загрузка транспорта и распределение посылок</t>
   </si>
   <si>
@@ -524,6 +488,33 @@
   </si>
   <si>
     <t>Сохранение конфиденциальости информации</t>
+  </si>
+  <si>
+    <t>Прием электронных платежей</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.0</t>
+  </si>
+  <si>
+    <t>Формирование отчетов доставки</t>
+  </si>
+  <si>
+    <t>Доступ к данным на основе ролей</t>
+  </si>
+  <si>
+    <t>Статус заказа в реальном времени</t>
+  </si>
+  <si>
+    <t>Связь курьеров с диспетчерами</t>
+  </si>
+  <si>
+    <t>Приоритезация заказов</t>
   </si>
 </sst>
 </file>
@@ -902,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -984,7 +975,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="31.5">
@@ -995,7 +986,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>21</v>
@@ -1059,7 +1050,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>16</v>
@@ -1076,36 +1067,36 @@
     </row>
     <row r="6" spans="1:10" ht="70.5" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="47.25">
       <c r="B7" s="1" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>26</v>
@@ -1126,15 +1117,15 @@
         <v>17</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="47.25">
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>26</v>
@@ -1146,30 +1137,30 @@
         <v>21</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>17</v>
+      <c r="H8" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="31.5">
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>22</v>
@@ -1184,18 +1175,18 @@
         <v>28</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="63">
       <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>26</v>
@@ -1207,7 +1198,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>16</v>
@@ -1216,27 +1207,27 @@
         <v>17</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="31.5">
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>16</v>
@@ -1245,27 +1236,27 @@
         <v>17</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="47.25">
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>16</v>
@@ -1274,15 +1265,15 @@
         <v>17</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="47.25">
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>26</v>
@@ -1294,7 +1285,7 @@
         <v>22</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>16</v>
@@ -1303,47 +1294,47 @@
         <v>17</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="31.5">
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>17</v>
+      <c r="H14" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="47.25">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>26</v>
@@ -1355,7 +1346,7 @@
         <v>22</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>16</v>
@@ -1364,27 +1355,27 @@
         <v>17</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="78.75">
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>16</v>
@@ -1393,15 +1384,15 @@
         <v>17</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="63">
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>26</v>
@@ -1410,10 +1401,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>16</v>
@@ -1422,27 +1413,27 @@
         <v>17</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="47.25">
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>16</v>
@@ -1451,27 +1442,27 @@
         <v>17</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="110.25">
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>16</v>
@@ -1480,53 +1471,53 @@
         <v>17</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="47.25">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="94.5">
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>21</v>
@@ -1538,30 +1529,30 @@
         <v>16</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="94.5">
       <c r="B22" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>16</v>
@@ -1570,59 +1561,59 @@
         <v>17</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="94.5">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="47.25">
       <c r="B24" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>16</v>
@@ -1631,27 +1622,27 @@
         <v>17</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="78.75">
       <c r="B25" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>16</v>
@@ -1660,18 +1651,18 @@
         <v>17</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="47.25">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>26</v>
@@ -1683,7 +1674,7 @@
         <v>27</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>16</v>
@@ -1692,44 +1683,44 @@
         <v>17</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="63">
       <c r="B27" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="63">
       <c r="B28" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>26</v>
@@ -1738,10 +1729,10 @@
         <v>20</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>16</v>
@@ -1750,100 +1741,100 @@
         <v>17</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="63">
       <c r="A29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>17</v>
+      <c r="H29" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="47.25">
       <c r="B30" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="31.5">
       <c r="B31" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="94.5">
@@ -1860,24 +1851,24 @@
         <v>22</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>17</v>
+      <c r="H32" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="94.5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="47.25">
       <c r="B33" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>26</v>
@@ -1886,56 +1877,56 @@
         <v>20</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="47.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="31.5">
       <c r="B34" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="31.5">
       <c r="B35" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>26</v>
@@ -1947,36 +1938,39 @@
         <v>22</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="31.5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="63">
+      <c r="A36" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="B36" s="1" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>16</v>
@@ -1985,18 +1979,18 @@
         <v>17</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="63">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="31.5">
       <c r="A37" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>26</v>
@@ -2005,10 +1999,10 @@
         <v>20</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>16</v>
@@ -2017,18 +2011,15 @@
         <v>17</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="31.5">
-      <c r="A38" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="47.25">
       <c r="B38" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>26</v>
@@ -2037,10 +2028,10 @@
         <v>20</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>16</v>
@@ -2049,15 +2040,15 @@
         <v>17</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="47.25">
       <c r="B39" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>26</v>
@@ -2066,68 +2057,68 @@
         <v>20</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="63">
+      <c r="B40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="47.25">
-      <c r="B40" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="F40" s="4" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>17</v>
+      <c r="H40" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="63">
       <c r="B41" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>16</v>
@@ -2136,15 +2127,15 @@
         <v>17</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="63">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="31.5">
       <c r="B42" s="1" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>26</v>
@@ -2153,10 +2144,10 @@
         <v>20</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>16</v>
@@ -2165,15 +2156,15 @@
         <v>17</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="31.5">
       <c r="B43" s="1" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>26</v>
@@ -2185,7 +2176,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>16</v>
@@ -2194,13 +2185,13 @@
         <v>17</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="31.5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="126">
       <c r="B44" s="1" t="s">
         <v>133</v>
       </c>
@@ -2211,10 +2202,10 @@
         <v>20</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>16</v>
@@ -2223,68 +2214,10 @@
         <v>17</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="63">
-      <c r="B45" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="126">
-      <c r="B46" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/2. Понимание потребностей пользователей/2.1. Функции продукта или системы.xlsx
+++ b/2. Понимание потребностей пользователей/2.1. Функции продукта или системы.xlsx
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
